--- a/Operational-Research_Fall_2022/4_NOVEMBER_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/Operational-Research_Fall_2022/4_NOVEMBER_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27109BE1-5CAB-4D46-90C4-D371DBF2A771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335E723F-6D65-499C-89AC-D1E9BCE21D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,6 +553,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,9 +590,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -597,13 +604,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,7 +947,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D26"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -968,90 +968,90 @@
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="41" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="42" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="30" t="s">
         <v>19</v>
       </c>
@@ -1062,16 +1062,16 @@
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="43" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1084,10 +1084,10 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -1096,20 +1096,22 @@
       <c r="D10" s="20">
         <v>6</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="20">
+        <v>13</v>
+      </c>
       <c r="F10" s="20"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="18" t="s">
         <v>13</v>
       </c>
@@ -1124,25 +1126,27 @@
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="38"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="16">
         <v>3</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="16">
+        <v>3</v>
+      </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="17">
         <f>SUM(D12:H12)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J12" s="23">
         <f>(I12/$I$12)*100</f>
@@ -1150,18 +1154,18 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -1176,7 +1180,9 @@
       <c r="D14" s="15">
         <v>0</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -1202,13 +1208,15 @@
       <c r="D15" s="15">
         <v>3</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="15">
+        <v>3</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" s="19">
         <f t="shared" si="1"/>
@@ -1228,13 +1236,15 @@
       <c r="D16" s="15">
         <v>3</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="15">
+        <v>3</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J16" s="19">
         <f t="shared" si="1"/>
@@ -1254,13 +1264,15 @@
       <c r="D17" s="15">
         <v>3</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="15">
+        <v>3</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J17" s="19">
         <f t="shared" si="1"/>
@@ -1280,13 +1292,15 @@
       <c r="D18" s="15">
         <v>3</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="15">
+        <v>3</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J18" s="19">
         <f t="shared" si="1"/>
@@ -1306,13 +1320,15 @@
       <c r="D19" s="15">
         <v>3</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="15">
+        <v>3</v>
+      </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J19" s="19">
         <f t="shared" si="1"/>
@@ -1332,13 +1348,15 @@
       <c r="D20" s="15">
         <v>3</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="15">
+        <v>3</v>
+      </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J20" s="19">
         <f t="shared" si="1"/>
@@ -1358,7 +1376,9 @@
       <c r="D21" s="15">
         <v>0</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -1384,13 +1404,15 @@
       <c r="D22" s="15">
         <v>3</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="15">
+        <v>3</v>
+      </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J22" s="19">
         <f t="shared" si="1"/>
@@ -1410,13 +1432,15 @@
       <c r="D23" s="15">
         <v>3</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="15">
+        <v>3</v>
+      </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J23" s="19">
         <f t="shared" si="1"/>
@@ -1436,13 +1460,15 @@
       <c r="D24" s="15">
         <v>3</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="15">
+        <v>3</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J24" s="19">
         <f t="shared" si="1"/>
@@ -1462,13 +1488,15 @@
       <c r="D25" s="15">
         <v>3</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="15">
+        <v>3</v>
+      </c>
       <c r="F25" s="15"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="28">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J25" s="29">
         <f t="shared" ref="J25" si="2">(I25/$I$12)*100</f>
@@ -1488,7 +1516,9 @@
       <c r="D26" s="15">
         <v>0</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -1509,15 +1539,15 @@
       <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="46"/>
+      <c r="D28" s="31"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="46"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
@@ -1534,6 +1564,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I10:I11"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="C3:D3"/>
@@ -1544,16 +1584,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I10:I11"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
